--- a/liste_networks.xlsx
+++ b/liste_networks.xlsx
@@ -7415,9 +7415,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1080"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/liste_networks.xlsx
+++ b/liste_networks.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18049" uniqueCount="2269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18053" uniqueCount="2272">
   <si>
     <t>taille</t>
   </si>
@@ -6843,6 +6843,15 @@
   </si>
   <si>
     <t>bezerra_2009</t>
+  </si>
+  <si>
+    <t>frost_1980</t>
+  </si>
+  <si>
+    <t>olesen_al_2002</t>
+  </si>
+  <si>
+    <t>percival_1974</t>
   </si>
 </sst>
 </file>
@@ -7415,9 +7424,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1080"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8619,6 +8628,9 @@
       </c>
     </row>
     <row r="20" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>2269</v>
+      </c>
       <c r="B20" s="8" t="s">
         <v>224</v>
       </c>
@@ -8677,180 +8689,186 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="21" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="E21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="E21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="G21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" t="s">
-        <v>44</v>
-      </c>
-      <c r="I21" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="G21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="L21" t="s">
-        <v>44</v>
-      </c>
-      <c r="M21">
-        <v>4</v>
-      </c>
-      <c r="N21">
+      <c r="L21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M21" s="8">
+        <v>4</v>
+      </c>
+      <c r="N21" s="8">
         <v>1</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="8">
         <v>-20.348403999999999</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="8">
         <v>57.552152</v>
       </c>
-      <c r="Q21" t="s">
-        <v>44</v>
-      </c>
-      <c r="R21" t="s">
-        <v>44</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="Q21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S21" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="T21" t="s">
+      <c r="T21" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+    <row r="22" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>2271</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="C22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="G22" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" t="s">
-        <v>44</v>
-      </c>
-      <c r="I22" t="s">
-        <v>44</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="G22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="L22" t="s">
-        <v>44</v>
-      </c>
-      <c r="M22">
-        <v>4</v>
-      </c>
-      <c r="N22">
+      <c r="L22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22" s="8">
+        <v>4</v>
+      </c>
+      <c r="N22" s="8">
         <v>1</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="8">
         <v>17.916699999999999</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="8">
         <v>-76.191699999999997</v>
       </c>
-      <c r="Q22" t="s">
-        <v>44</v>
-      </c>
-      <c r="R22" t="s">
-        <v>44</v>
-      </c>
-      <c r="S22" t="s">
-        <v>44</v>
-      </c>
-      <c r="T22" t="s">
+      <c r="Q22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="T22" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+    <row r="23" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="C23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="G23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" t="s">
-        <v>44</v>
-      </c>
-      <c r="I23" t="s">
-        <v>44</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="G23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="L23" t="s">
-        <v>44</v>
-      </c>
-      <c r="M23">
-        <v>4</v>
-      </c>
-      <c r="N23">
+      <c r="L23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" s="8">
+        <v>4</v>
+      </c>
+      <c r="N23" s="8">
         <v>1</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="8">
         <v>35.583300000000001</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="8">
         <v>138.38329999999999</v>
       </c>
-      <c r="Q23" t="s">
-        <v>44</v>
-      </c>
-      <c r="R23" t="s">
-        <v>44</v>
-      </c>
-      <c r="S23" t="s">
-        <v>44</v>
-      </c>
-      <c r="T23" t="s">
+      <c r="Q23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="T23" s="8" t="s">
         <v>50</v>
       </c>
     </row>
@@ -23545,7 +23563,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="273" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B273" t="s">
         <v>450</v>
       </c>
@@ -23604,7 +23622,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="274" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B274" t="s">
         <v>451</v>
       </c>
@@ -23663,7 +23681,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="275" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B275" t="s">
         <v>452</v>
       </c>
@@ -23722,7 +23740,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="276" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B276" t="s">
         <v>453</v>
       </c>
@@ -23781,7 +23799,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="277" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B277" t="s">
         <v>602</v>
       </c>
@@ -23840,7 +23858,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="278" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B278" t="s">
         <v>375</v>
       </c>
@@ -23899,7 +23917,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="279" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B279" t="s">
         <v>775</v>
       </c>
@@ -23958,7 +23976,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="280" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B280" t="s">
         <v>1014</v>
       </c>
@@ -24017,7 +24035,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="281" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B281" t="s">
         <v>1016</v>
       </c>
@@ -24076,7 +24094,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="282" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B282" t="s">
         <v>1038</v>
       </c>
@@ -24135,7 +24153,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="283" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B283" t="s">
         <v>416</v>
       </c>
@@ -24194,66 +24212,69 @@
         <v>50</v>
       </c>
     </row>
-    <row r="284" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B284" t="s">
+    <row r="284" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="8" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B284" s="8" t="s">
         <v>1241</v>
       </c>
-      <c r="C284" t="s">
-        <v>44</v>
-      </c>
-      <c r="D284" t="s">
+      <c r="C284" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D284" s="8" t="s">
         <v>1242</v>
       </c>
-      <c r="E284" t="s">
-        <v>44</v>
-      </c>
-      <c r="F284" t="s">
+      <c r="E284" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F284" s="8" t="s">
         <v>1243</v>
       </c>
-      <c r="G284" t="s">
-        <v>44</v>
-      </c>
-      <c r="H284" t="s">
-        <v>44</v>
-      </c>
-      <c r="I284" t="s">
-        <v>44</v>
-      </c>
-      <c r="J284" t="s">
+      <c r="G284" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H284" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I284" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J284" s="8" t="s">
         <v>1244</v>
       </c>
-      <c r="K284" t="s">
+      <c r="K284" s="8" t="s">
         <v>1245</v>
       </c>
-      <c r="L284" t="s">
-        <v>44</v>
-      </c>
-      <c r="M284">
+      <c r="L284" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M284" s="8">
         <v>3</v>
       </c>
-      <c r="N284">
+      <c r="N284" s="8">
         <v>1</v>
       </c>
-      <c r="O284">
+      <c r="O284" s="8">
         <v>39.466667000000001</v>
       </c>
-      <c r="P284">
+      <c r="P284" s="8">
         <v>-31.227222000000001</v>
       </c>
-      <c r="Q284" t="s">
-        <v>44</v>
-      </c>
-      <c r="R284" t="s">
-        <v>44</v>
-      </c>
-      <c r="S284" t="s">
+      <c r="Q284" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="R284" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S284" s="8" t="s">
         <v>1246</v>
       </c>
-      <c r="T284" t="s">
+      <c r="T284" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="285" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B285" t="s">
         <v>1551</v>
       </c>
@@ -24312,7 +24333,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="286" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B286" t="s">
         <v>1576</v>
       </c>
@@ -24371,7 +24392,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="287" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B287" t="s">
         <v>1579</v>
       </c>
@@ -24430,7 +24451,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="288" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B288" t="s">
         <v>1582</v>
       </c>

--- a/liste_networks.xlsx
+++ b/liste_networks.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell_Gabriel\Desktop\StageGravel\importation_mangal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Documents\stage_gravel\mangal-datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="all_foodwebs" sheetId="2" r:id="rId2"/>
     <sheet name="marine" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18053" uniqueCount="2272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18056" uniqueCount="2274">
   <si>
     <t>taille</t>
   </si>
@@ -6853,11 +6853,17 @@
   <si>
     <t>percival_1974</t>
   </si>
+  <si>
+    <t>fautin_1993</t>
+  </si>
+  <si>
+    <t>kato_1993</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -6916,7 +6922,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6931,9 +6937,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7218,7 +7225,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.7109375"/>
     <col min="2" max="2" width="138.85546875"/>
@@ -7425,11 +7432,11 @@
   <dimension ref="A1:T1080"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="2" width="11.5703125"/>
@@ -8814,6 +8821,9 @@
       </c>
     </row>
     <row r="23" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>2273</v>
+      </c>
       <c r="B23" s="8" t="s">
         <v>246</v>
       </c>
@@ -8872,62 +8882,65 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="24" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="E24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" t="s">
-        <v>44</v>
-      </c>
-      <c r="I24" t="s">
-        <v>44</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="E24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="M24">
-        <v>4</v>
-      </c>
-      <c r="N24">
+      <c r="M24" s="8">
+        <v>4</v>
+      </c>
+      <c r="N24" s="8">
         <v>1</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O24" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P24" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="Q24" t="s">
-        <v>44</v>
-      </c>
-      <c r="R24" t="s">
-        <v>44</v>
-      </c>
-      <c r="S24" t="s">
+      <c r="Q24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="R24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S24" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="T24" t="s">
+      <c r="T24" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -16955,7 +16968,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="161" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>646</v>
       </c>
@@ -17014,7 +17027,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="162" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>649</v>
       </c>
@@ -17073,7 +17086,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="163" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>652</v>
       </c>
@@ -17132,7 +17145,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="164" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>611</v>
       </c>
@@ -17191,7 +17204,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="165" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>658</v>
       </c>
@@ -17250,7 +17263,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="166" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>661</v>
       </c>
@@ -17309,7 +17322,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="167" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>664</v>
       </c>
@@ -17368,66 +17381,69 @@
         <v>44</v>
       </c>
     </row>
-    <row r="168" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B168" t="s">
+    <row r="168" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="B168" s="8" t="s">
         <v>668</v>
       </c>
-      <c r="C168" t="s">
-        <v>44</v>
-      </c>
-      <c r="D168" t="s">
+      <c r="C168" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D168" s="8" t="s">
         <v>669</v>
       </c>
-      <c r="E168" t="s">
-        <v>44</v>
-      </c>
-      <c r="F168" t="s">
+      <c r="E168" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F168" s="8" t="s">
         <v>670</v>
       </c>
-      <c r="G168" t="s">
-        <v>44</v>
-      </c>
-      <c r="H168" t="s">
-        <v>44</v>
-      </c>
-      <c r="I168" t="s">
-        <v>44</v>
-      </c>
-      <c r="J168" t="s">
+      <c r="G168" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H168" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I168" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J168" s="8" t="s">
         <v>671</v>
       </c>
-      <c r="K168" t="s">
+      <c r="K168" s="8" t="s">
         <v>672</v>
       </c>
-      <c r="L168" t="s">
-        <v>44</v>
-      </c>
-      <c r="M168">
-        <v>4</v>
-      </c>
-      <c r="N168">
+      <c r="L168" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M168" s="8">
+        <v>4</v>
+      </c>
+      <c r="N168" s="8">
         <v>1</v>
       </c>
-      <c r="O168">
+      <c r="O168" s="8">
         <v>-0.5</v>
       </c>
-      <c r="P168">
+      <c r="P168" s="8">
         <v>-90.5</v>
       </c>
-      <c r="Q168" t="s">
-        <v>44</v>
-      </c>
-      <c r="R168" t="s">
-        <v>44</v>
-      </c>
-      <c r="S168" t="s">
+      <c r="Q168" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="R168" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S168" s="8" t="s">
         <v>673</v>
       </c>
-      <c r="T168" t="s">
+      <c r="T168" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>694</v>
       </c>
@@ -17486,7 +17502,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="170" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>703</v>
       </c>
@@ -17545,7 +17561,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="171" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>707</v>
       </c>
@@ -17604,7 +17620,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="172" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>710</v>
       </c>
@@ -17663,7 +17679,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="173" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>722</v>
       </c>
@@ -17722,7 +17738,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="174" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>824</v>
       </c>
@@ -17781,7 +17797,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="175" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>826</v>
       </c>
@@ -17840,7 +17856,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="176" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>914</v>
       </c>
@@ -71251,9 +71267,10 @@
     <hyperlink ref="S969" r:id="rId5"/>
     <hyperlink ref="S265" r:id="rId6"/>
     <hyperlink ref="S36" r:id="rId7"/>
+    <hyperlink ref="S24" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -71269,7 +71286,7 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1025" width="11.5703125"/>
   </cols>
